--- a/data/trans_dic/P16A08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.04788104352538141</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.03671234668057492</v>
+        <v>0.03671234668057491</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02136621048703216</v>
+        <v>0.02087593298707437</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02573263859642395</v>
+        <v>0.02533425945670105</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02464749439678989</v>
+        <v>0.02474050496837926</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01241808171660392</v>
+        <v>0.0145729059410842</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02253451731230501</v>
+        <v>0.02383131575785378</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04399988107790776</v>
+        <v>0.0428168117724392</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03424007379280868</v>
+        <v>0.03631029231172365</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01791480385485551</v>
+        <v>0.01830635955753996</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02567711364761651</v>
+        <v>0.02569226431312602</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03730911606606851</v>
+        <v>0.03792581040802694</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03451927208465566</v>
+        <v>0.03549802381104391</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01957568369354539</v>
+        <v>0.02163480855695025</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05394953184217198</v>
+        <v>0.0519936864864894</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06611457237506953</v>
+        <v>0.06283334356587322</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06313015264948367</v>
+        <v>0.06425943843053679</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06554250281798614</v>
+        <v>0.06590341150595042</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06151269576832306</v>
+        <v>0.0584313789405024</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09010937187467884</v>
+        <v>0.09003402716923105</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08030860049926349</v>
+        <v>0.07990577722084585</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07744619427835196</v>
+        <v>0.07871567645697898</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0493514232676488</v>
+        <v>0.04808273870140688</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06751188713054969</v>
+        <v>0.06835090312867056</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06260687206692944</v>
+        <v>0.06562191058812367</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06106399207618007</v>
+        <v>0.0589563507254143</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0146534288776844</v>
+        <v>0.01528107173408805</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02620204814449018</v>
+        <v>0.0264931777692916</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02273260816615879</v>
+        <v>0.02262251105503251</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03039842903368996</v>
+        <v>0.02904497588310175</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02761214117103825</v>
+        <v>0.02811723318404297</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04422401696287</v>
+        <v>0.04256208417746639</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04241644707765235</v>
+        <v>0.04326746947789598</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04533989064215043</v>
+        <v>0.04671340619567362</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02367118717154255</v>
+        <v>0.02458790628999302</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03856026792896106</v>
+        <v>0.03952927083352204</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03582079519139634</v>
+        <v>0.03738341694814791</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04515841676764713</v>
+        <v>0.04520821462684705</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04029297580499426</v>
+        <v>0.03967352681795117</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0585805537542966</v>
+        <v>0.05903958305447526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0536975562907756</v>
+        <v>0.05177720612377468</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08306984433068203</v>
+        <v>0.07986627708820059</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06129216275225868</v>
+        <v>0.06457892122516737</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08562009114285384</v>
+        <v>0.08570583033787693</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08454342598340844</v>
+        <v>0.08354227983996425</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09387011529337122</v>
+        <v>0.09700879567230122</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04456808122177779</v>
+        <v>0.04541673578492025</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06511951193194281</v>
+        <v>0.06307131707246766</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06275153036600224</v>
+        <v>0.06293365883110105</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07777972486973218</v>
+        <v>0.07885294171439121</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.06923536716754687</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.0492711807467098</v>
+        <v>0.04927118074670979</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03040608645570291</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01012470509330378</v>
+        <v>0.01039737364989981</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02474948226238931</v>
+        <v>0.02466151766487933</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01891655861671986</v>
+        <v>0.01943195425008924</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02406282613012981</v>
+        <v>0.02410811386313599</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02774220542985413</v>
+        <v>0.02745218819804373</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05508105794897309</v>
+        <v>0.05562962144060404</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05290417735929785</v>
+        <v>0.05090108013620816</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03650543061605426</v>
+        <v>0.0361562828604677</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02127071450184685</v>
+        <v>0.02125610316494757</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04575452915342685</v>
+        <v>0.04589289622212069</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03873802871031345</v>
+        <v>0.03994011117963508</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03359365240559054</v>
+        <v>0.03386773861489712</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03212450015034674</v>
+        <v>0.03222446799235883</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05723881467622224</v>
+        <v>0.05665015332472072</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04833155840978474</v>
+        <v>0.04922497513816796</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05438222949807514</v>
+        <v>0.05615660892091376</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05834189766715095</v>
+        <v>0.05957310227898281</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0956262082707698</v>
+        <v>0.09784853544142884</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09236338798176201</v>
+        <v>0.09070910162044636</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06522815047541021</v>
+        <v>0.06624822796962225</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04100152372113577</v>
+        <v>0.04096515053948969</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0728757586318943</v>
+        <v>0.07067270490001527</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06336694610039374</v>
+        <v>0.06437110909558932</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05646366184170819</v>
+        <v>0.05648006276755694</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.0522573501736887</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.06447003583945363</v>
+        <v>0.06447003583945361</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02596057378794569</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009473676818517176</v>
+        <v>0.008890699356346976</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01068522914133637</v>
+        <v>0.01231172364923598</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01044838488679216</v>
+        <v>0.009211107393929045</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03220744056993873</v>
+        <v>0.03252678548766533</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01870517916837686</v>
+        <v>0.01880141322281498</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03711613783135358</v>
+        <v>0.03840707681789967</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03480324809735989</v>
+        <v>0.03697094166196579</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05075535589158196</v>
+        <v>0.05015813612373227</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01668100984707626</v>
+        <v>0.01720148577366721</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02765404624934301</v>
+        <v>0.02839923910903714</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02653237991915115</v>
+        <v>0.02544098680898736</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04583783262742934</v>
+        <v>0.0456469434301852</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04037390015990264</v>
+        <v>0.04204901761039415</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04151367938101071</v>
+        <v>0.04154018742662981</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03378962549304144</v>
+        <v>0.03197680212491273</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06905415454844178</v>
+        <v>0.06738622640183069</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04959065101275717</v>
+        <v>0.04947864094154533</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07747517554642523</v>
+        <v>0.08055608403217759</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07112913276065785</v>
+        <v>0.07584635175249337</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08125097333294801</v>
+        <v>0.08038004254891218</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03748406923789643</v>
+        <v>0.03953459761992806</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05297973133657434</v>
+        <v>0.05306770901570705</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04864200874820743</v>
+        <v>0.04864210874879207</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06896916368149311</v>
+        <v>0.06922359057521027</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0128507794633367</v>
+        <v>0.01295933927656154</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009575868907111011</v>
+        <v>0.009704533470799279</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02428565638374104</v>
+        <v>0.02457221016684872</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.009593515226057519</v>
+        <v>0.00964481251938934</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03064869994822905</v>
+        <v>0.03042885073223526</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01812589143041177</v>
+        <v>0.01889401800864041</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03379097631131607</v>
+        <v>0.03364631859650737</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03183566716794892</v>
+        <v>0.03277307977434599</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02630001666436504</v>
+        <v>0.02511204853183993</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01707040673179303</v>
+        <v>0.01745655978842226</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0322989431232253</v>
+        <v>0.03379476969403986</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02274579014536864</v>
+        <v>0.02323380756381257</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04963817631794237</v>
+        <v>0.04802973904522755</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03772360138889611</v>
+        <v>0.03698415418113611</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06163928251738858</v>
+        <v>0.06399018945682215</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03041292722060784</v>
+        <v>0.0298971298091321</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07708937451599275</v>
+        <v>0.076127633534603</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05552697946617173</v>
+        <v>0.054590190115205</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0790310817214001</v>
+        <v>0.07655564092867091</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05638626305376303</v>
+        <v>0.05742755667065932</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05641049974705543</v>
+        <v>0.05423436049949608</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0380654757620278</v>
+        <v>0.03896914294437893</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06253115518707758</v>
+        <v>0.06250428284264778</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03863129138933168</v>
+        <v>0.03908900595729663</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.006350361537553317</v>
+        <v>0.00487396910168003</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0202055354824503</v>
+        <v>0.0225919534517903</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.005604045452336904</v>
+        <v>0.005611591388953853</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.009290765005192547</v>
+        <v>0.00875372264141243</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02799448347560415</v>
+        <v>0.02844958131872008</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02564265539698223</v>
+        <v>0.02443581622285825</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0182307486600376</v>
+        <v>0.01691984408719452</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02918653589878104</v>
+        <v>0.03052341776284728</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02122649378816638</v>
+        <v>0.02063586228635484</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02721755511430974</v>
+        <v>0.0278752436011269</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01458804174138766</v>
+        <v>0.01422378271421004</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.022010331395492</v>
+        <v>0.02181444092281826</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04075325907265027</v>
+        <v>0.03819100846630114</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0728207113428419</v>
+        <v>0.07060312664311727</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03215885714633789</v>
+        <v>0.03157945737657591</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03292970293681451</v>
+        <v>0.03268443166403438</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07196246007134445</v>
+        <v>0.07585896944272731</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0672176115193196</v>
+        <v>0.0674137446668257</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.05765041238792243</v>
+        <v>0.0566646735391391</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05785749786548868</v>
+        <v>0.06019074668262432</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04982813924180206</v>
+        <v>0.04858684841507058</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.05974361423181157</v>
+        <v>0.05953638593831947</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03820437401458802</v>
+        <v>0.03806784389828835</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.0405915291100598</v>
+        <v>0.04064878103823644</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.03927171325734829</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.02913809870789865</v>
+        <v>0.02913809870789864</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.02346100111509204</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.008270616394309181</v>
+        <v>0.008150052328823792</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01746067353271477</v>
+        <v>0.01680526829174278</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01641083858779504</v>
+        <v>0.01591197774336725</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0116284895979031</v>
+        <v>0.01142021655490729</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.009771824002651702</v>
+        <v>0.009791066252934567</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02001301921130089</v>
+        <v>0.02232105143444507</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02264899044692795</v>
+        <v>0.02274485081663124</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01928856212766724</v>
+        <v>0.01838318269448404</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01248253772061045</v>
+        <v>0.01065852970783201</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02434622100909103</v>
+        <v>0.02517030226395644</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02437223169652605</v>
+        <v>0.02446161891988191</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.0185580765093654</v>
+        <v>0.0178484061696173</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05744319073450155</v>
+        <v>0.05051952069487645</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07505435273300524</v>
+        <v>0.07299164132617698</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05845790829010458</v>
+        <v>0.05765789308594483</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04072275982447849</v>
+        <v>0.03994447212111732</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04977059894349854</v>
+        <v>0.0471206577967448</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05973950910341579</v>
+        <v>0.06020619430730473</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06519720386897029</v>
+        <v>0.06549312473691368</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.04498117689695052</v>
+        <v>0.04263116642046975</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04141149642010061</v>
+        <v>0.03993808321655541</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.05702246272247682</v>
+        <v>0.0554730948934565</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05452647820586187</v>
+        <v>0.05597079113582401</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.03624744032077695</v>
+        <v>0.03652622046069191</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.05373387652741457</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.04954607024680572</v>
+        <v>0.04954607024680571</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.03163006843644426</v>
@@ -1649,7 +1649,7 @@
         <v>0.04247045375638014</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.04191680066327556</v>
+        <v>0.04191680066327554</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01924956398251143</v>
+        <v>0.01905542058184682</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02813799329757886</v>
+        <v>0.02781777421199067</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02481124538428898</v>
+        <v>0.02506791274463798</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02801930357341013</v>
+        <v>0.02703027695473402</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.03283994364509102</v>
+        <v>0.03286401063679439</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04740421220118578</v>
+        <v>0.04749112643941718</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.04591847582898394</v>
+        <v>0.04580408396035201</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.04308013915328687</v>
+        <v>0.04368376964118601</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02752913238249925</v>
+        <v>0.02738666494807595</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.04014037183572045</v>
+        <v>0.04015868134700201</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.03801244302072264</v>
+        <v>0.03793017424983461</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.03782953707286549</v>
+        <v>0.03737852078602323</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0308453166015012</v>
+        <v>0.03077756683363266</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04121948373553914</v>
+        <v>0.0413500679282507</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03706484341042916</v>
+        <v>0.03734250786109318</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04172560681908181</v>
+        <v>0.04079472344240208</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.04652445278689873</v>
+        <v>0.04599224909638291</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.06299285560891164</v>
+        <v>0.06336522428992422</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.06222682901993164</v>
+        <v>0.0616530115384867</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.05703317707523096</v>
+        <v>0.05732824562701815</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03621949897416051</v>
+        <v>0.03649390115597236</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.050962837181286</v>
+        <v>0.05058949736521117</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.04823877682643521</v>
+        <v>0.04754727723954714</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.04726487524140766</v>
+        <v>0.04630644428156344</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10556</v>
+        <v>10314</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11660</v>
+        <v>11479</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10339</v>
+        <v>10378</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5064</v>
+        <v>5943</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>10535</v>
+        <v>11141</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>18891</v>
+        <v>18383</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>13551</v>
+        <v>14370</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6494</v>
+        <v>6636</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>24690</v>
+        <v>24704</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>32923</v>
+        <v>33467</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>28141</v>
+        <v>28939</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>15079</v>
+        <v>16665</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26655</v>
+        <v>25688</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29957</v>
+        <v>28470</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26481</v>
+        <v>26954</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26728</v>
+        <v>26875</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>28757</v>
+        <v>27316</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>38687</v>
+        <v>38655</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>31783</v>
+        <v>31623</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>28075</v>
+        <v>28535</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>47454</v>
+        <v>46234</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>59576</v>
+        <v>60316</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>51038</v>
+        <v>53496</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>47038</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10777</v>
+        <v>11239</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>17981</v>
+        <v>18181</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13424</v>
+        <v>13359</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14497</v>
+        <v>13851</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>17271</v>
+        <v>17587</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>26942</v>
+        <v>25929</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>23904</v>
+        <v>24383</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>22719</v>
+        <v>23407</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>32216</v>
+        <v>33464</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>49953</v>
+        <v>51208</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>41339</v>
+        <v>43142</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>44164</v>
+        <v>44212</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>29635</v>
+        <v>29179</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>40200</v>
+        <v>40515</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31708</v>
+        <v>30574</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>39615</v>
+        <v>38087</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>38338</v>
+        <v>40394</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>52161</v>
+        <v>52213</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>47644</v>
+        <v>47080</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>47037</v>
+        <v>48609</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>60656</v>
+        <v>61811</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>84359</v>
+        <v>81706</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>72418</v>
+        <v>72628</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>76066</v>
+        <v>77116</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6456</v>
+        <v>6630</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16831</v>
+        <v>16771</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12657</v>
+        <v>13002</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>14939</v>
+        <v>14967</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>19135</v>
+        <v>18935</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>38884</v>
+        <v>39271</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>34990</v>
+        <v>33665</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>22711</v>
+        <v>22494</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>28235</v>
+        <v>28215</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>63415</v>
+        <v>63607</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>51540</v>
+        <v>53140</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>41756</v>
+        <v>42097</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>20484</v>
+        <v>20548</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38925</v>
+        <v>38525</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32339</v>
+        <v>32936</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33763</v>
+        <v>34864</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>40241</v>
+        <v>41090</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>67506</v>
+        <v>69075</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>61088</v>
+        <v>59994</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>40581</v>
+        <v>41216</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>54425</v>
+        <v>54377</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>101005</v>
+        <v>97952</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>84309</v>
+        <v>85645</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>70183</v>
+        <v>70203</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4918</v>
+        <v>4616</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6567</v>
+        <v>7567</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6750</v>
+        <v>5951</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>22565</v>
+        <v>22789</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9645</v>
+        <v>9695</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>22792</v>
+        <v>23585</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>22590</v>
+        <v>23997</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>37401</v>
+        <v>36961</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>17261</v>
+        <v>17800</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>33978</v>
+        <v>34894</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>34363</v>
+        <v>32949</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>65892</v>
+        <v>65618</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20960</v>
+        <v>21830</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25515</v>
+        <v>25531</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21830</v>
+        <v>20659</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>48381</v>
+        <v>47212</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>25571</v>
+        <v>25513</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>47575</v>
+        <v>49467</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>46168</v>
+        <v>49230</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>59873</v>
+        <v>59231</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>38788</v>
+        <v>40910</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>65096</v>
+        <v>65204</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>62997</v>
+        <v>62998</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>99143</v>
+        <v>99509</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4970</v>
+        <v>5012</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4102</v>
+        <v>4157</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11607</v>
+        <v>11744</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5836</v>
+        <v>5868</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12382</v>
+        <v>12293</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>8117</v>
+        <v>8461</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>16789</v>
+        <v>16717</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>19339</v>
+        <v>19908</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>20795</v>
+        <v>19856</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>14956</v>
+        <v>15294</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>31484</v>
+        <v>32942</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>27654</v>
+        <v>28248</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>19196</v>
+        <v>18574</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>16159</v>
+        <v>15842</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>29459</v>
+        <v>30582</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>18502</v>
+        <v>18188</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>31143</v>
+        <v>30754</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>24865</v>
+        <v>24445</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>39267</v>
+        <v>38037</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>34252</v>
+        <v>34884</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>44604</v>
+        <v>42883</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>33351</v>
+        <v>34143</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>60953</v>
+        <v>60927</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>46968</v>
+        <v>47525</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1858</v>
+        <v>1426</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6219</v>
+        <v>6954</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3782</v>
+        <v>3563</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>9600</v>
+        <v>9756</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>9053</v>
+        <v>8627</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>6887</v>
+        <v>6392</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>12818</v>
+        <v>13405</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>13490</v>
+        <v>13114</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>17987</v>
+        <v>18421</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>10388</v>
+        <v>10129</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>18626</v>
+        <v>18460</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11924</v>
+        <v>11174</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>22414</v>
+        <v>21731</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10752</v>
+        <v>10558</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>13405</v>
+        <v>13305</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>24678</v>
+        <v>26015</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>23732</v>
+        <v>23801</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>21778</v>
+        <v>21406</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>25409</v>
+        <v>26434</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>31667</v>
+        <v>30878</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>39482</v>
+        <v>39345</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>27205</v>
+        <v>27108</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>34350</v>
+        <v>34399</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1736</v>
+        <v>1711</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4348</v>
+        <v>4185</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4218</v>
+        <v>4089</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3601</v>
+        <v>3537</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>3263</v>
+        <v>3269</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>7718</v>
+        <v>8608</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>9063</v>
+        <v>9102</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>8932</v>
+        <v>8513</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>6788</v>
+        <v>5796</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>15453</v>
+        <v>15976</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>16017</v>
+        <v>16075</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>14341</v>
+        <v>13793</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>12056</v>
+        <v>10603</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>18691</v>
+        <v>18178</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>15024</v>
+        <v>14818</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>12612</v>
+        <v>12371</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>16619</v>
+        <v>15734</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>23039</v>
+        <v>23219</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>26090</v>
+        <v>26208</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>20830</v>
+        <v>19742</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>22519</v>
+        <v>21718</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>36192</v>
+        <v>35209</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>35833</v>
+        <v>36782</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>28011</v>
+        <v>28227</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>63052</v>
+        <v>62417</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>96209</v>
+        <v>95114</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>84218</v>
+        <v>85089</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>98944</v>
+        <v>95451</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>110973</v>
+        <v>111054</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>168052</v>
+        <v>168360</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>162760</v>
+        <v>162354</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>160789</v>
+        <v>163042</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>183199</v>
+        <v>182251</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>279549</v>
+        <v>279676</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>263764</v>
+        <v>263193</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>274778</v>
+        <v>271502</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>101035</v>
+        <v>100813</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>140937</v>
+        <v>141384</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>125811</v>
+        <v>126754</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>147345</v>
+        <v>144058</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>157215</v>
+        <v>155417</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>223315</v>
+        <v>224635</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>220566</v>
+        <v>218532</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>212866</v>
+        <v>213967</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>241031</v>
+        <v>242857</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>354919</v>
+        <v>352319</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>334724</v>
+        <v>329925</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>343313</v>
+        <v>336351</v>
       </c>
     </row>
     <row r="36">
